--- a/Jan'2021/Daily Sales Details/09.01.2021/BL Sales Info...xlsx
+++ b/Jan'2021/Daily Sales Details/09.01.2021/BL Sales Info...xlsx
@@ -2784,13 +2784,19 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2820,19 +2826,13 @@
     <xf numFmtId="0" fontId="28" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2889,6 +2889,30 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2938,30 +2962,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3628,7 +3628,7 @@
       <pane xSplit="25" ySplit="8" topLeftCell="Z22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32:M32"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3680,160 +3680,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30.75">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="303" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
-      <c r="N1" s="315"/>
-      <c r="O1" s="315"/>
-      <c r="P1" s="315"/>
-      <c r="Q1" s="315"/>
-      <c r="R1" s="315"/>
-      <c r="S1" s="315"/>
-      <c r="T1" s="315"/>
-      <c r="U1" s="315"/>
-      <c r="V1" s="315"/>
-      <c r="W1" s="315"/>
-      <c r="X1" s="315"/>
-      <c r="Y1" s="315"/>
-      <c r="Z1" s="315"/>
-      <c r="AA1" s="315"/>
-      <c r="AB1" s="315"/>
-      <c r="AC1" s="315"/>
-      <c r="AD1" s="315"/>
-      <c r="AE1" s="315"/>
-      <c r="AF1" s="315"/>
-      <c r="AG1" s="315"/>
-      <c r="AH1" s="315"/>
-      <c r="AI1" s="315"/>
-      <c r="AJ1" s="315"/>
-      <c r="AK1" s="315"/>
-      <c r="AL1" s="315"/>
-      <c r="AM1" s="315"/>
-      <c r="AN1" s="315"/>
-      <c r="AO1" s="315"/>
-      <c r="AP1" s="315"/>
-      <c r="AQ1" s="315"/>
-      <c r="AR1" s="315"/>
-      <c r="AS1" s="315"/>
-      <c r="AT1" s="315"/>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="303"/>
+      <c r="O1" s="303"/>
+      <c r="P1" s="303"/>
+      <c r="Q1" s="303"/>
+      <c r="R1" s="303"/>
+      <c r="S1" s="303"/>
+      <c r="T1" s="303"/>
+      <c r="U1" s="303"/>
+      <c r="V1" s="303"/>
+      <c r="W1" s="303"/>
+      <c r="X1" s="303"/>
+      <c r="Y1" s="303"/>
+      <c r="Z1" s="303"/>
+      <c r="AA1" s="303"/>
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="303"/>
+      <c r="AD1" s="303"/>
+      <c r="AE1" s="303"/>
+      <c r="AF1" s="303"/>
+      <c r="AG1" s="303"/>
+      <c r="AH1" s="303"/>
+      <c r="AI1" s="303"/>
+      <c r="AJ1" s="303"/>
+      <c r="AK1" s="303"/>
+      <c r="AL1" s="303"/>
+      <c r="AM1" s="303"/>
+      <c r="AN1" s="303"/>
+      <c r="AO1" s="303"/>
+      <c r="AP1" s="303"/>
+      <c r="AQ1" s="303"/>
+      <c r="AR1" s="303"/>
+      <c r="AS1" s="303"/>
+      <c r="AT1" s="303"/>
     </row>
     <row r="2" spans="1:56" ht="21" thickBot="1">
-      <c r="A2" s="316" t="s">
+      <c r="A2" s="304" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316"/>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
-      <c r="M2" s="316"/>
-      <c r="N2" s="316"/>
-      <c r="O2" s="316"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="316"/>
-      <c r="T2" s="316"/>
-      <c r="U2" s="316"/>
-      <c r="V2" s="316"/>
-      <c r="W2" s="316"/>
-      <c r="X2" s="316"/>
-      <c r="Y2" s="316"/>
-      <c r="Z2" s="316"/>
-      <c r="AA2" s="316"/>
-      <c r="AB2" s="316"/>
-      <c r="AC2" s="316"/>
-      <c r="AD2" s="316"/>
-      <c r="AE2" s="316"/>
-      <c r="AF2" s="316"/>
-      <c r="AG2" s="316"/>
-      <c r="AH2" s="316"/>
-      <c r="AI2" s="316"/>
-      <c r="AJ2" s="316"/>
-      <c r="AK2" s="316"/>
-      <c r="AL2" s="316"/>
-      <c r="AM2" s="316"/>
-      <c r="AN2" s="316"/>
-      <c r="AO2" s="316"/>
-      <c r="AP2" s="316"/>
-      <c r="AQ2" s="316"/>
-      <c r="AR2" s="316"/>
-      <c r="AS2" s="316"/>
-      <c r="AT2" s="316"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="304"/>
+      <c r="J2" s="304"/>
+      <c r="K2" s="304"/>
+      <c r="L2" s="304"/>
+      <c r="M2" s="304"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="304"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="304"/>
+      <c r="S2" s="304"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="304"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="304"/>
+      <c r="AD2" s="304"/>
+      <c r="AE2" s="304"/>
+      <c r="AF2" s="304"/>
+      <c r="AG2" s="304"/>
+      <c r="AH2" s="304"/>
+      <c r="AI2" s="304"/>
+      <c r="AJ2" s="304"/>
+      <c r="AK2" s="304"/>
+      <c r="AL2" s="304"/>
+      <c r="AM2" s="304"/>
+      <c r="AN2" s="304"/>
+      <c r="AO2" s="304"/>
+      <c r="AP2" s="304"/>
+      <c r="AQ2" s="304"/>
+      <c r="AR2" s="304"/>
+      <c r="AS2" s="304"/>
+      <c r="AT2" s="304"/>
     </row>
     <row r="3" spans="1:56" ht="18.75">
-      <c r="A3" s="317" t="s">
+      <c r="A3" s="305" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="318"/>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="319"/>
-      <c r="H3" s="319"/>
-      <c r="I3" s="319"/>
-      <c r="J3" s="319"/>
-      <c r="K3" s="319"/>
-      <c r="L3" s="319"/>
-      <c r="M3" s="319"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="319"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="319"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="319"/>
-      <c r="T3" s="319"/>
-      <c r="U3" s="319"/>
-      <c r="V3" s="319"/>
-      <c r="W3" s="319"/>
-      <c r="X3" s="319"/>
-      <c r="Y3" s="319"/>
-      <c r="Z3" s="319"/>
-      <c r="AA3" s="319"/>
-      <c r="AB3" s="319"/>
-      <c r="AC3" s="319"/>
-      <c r="AD3" s="319"/>
-      <c r="AE3" s="319"/>
-      <c r="AF3" s="319"/>
-      <c r="AG3" s="319"/>
-      <c r="AH3" s="319"/>
-      <c r="AI3" s="319"/>
-      <c r="AJ3" s="319"/>
-      <c r="AK3" s="319"/>
-      <c r="AL3" s="319"/>
-      <c r="AM3" s="319"/>
-      <c r="AN3" s="319"/>
-      <c r="AO3" s="319"/>
-      <c r="AP3" s="319"/>
-      <c r="AQ3" s="319"/>
-      <c r="AR3" s="319"/>
-      <c r="AS3" s="319"/>
-      <c r="AT3" s="319"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="307"/>
+      <c r="G3" s="307"/>
+      <c r="H3" s="307"/>
+      <c r="I3" s="307"/>
+      <c r="J3" s="307"/>
+      <c r="K3" s="307"/>
+      <c r="L3" s="307"/>
+      <c r="M3" s="307"/>
+      <c r="N3" s="307"/>
+      <c r="O3" s="307"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="307"/>
+      <c r="S3" s="307"/>
+      <c r="T3" s="307"/>
+      <c r="U3" s="307"/>
+      <c r="V3" s="307"/>
+      <c r="W3" s="307"/>
+      <c r="X3" s="307"/>
+      <c r="Y3" s="307"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="307"/>
+      <c r="AB3" s="307"/>
+      <c r="AC3" s="307"/>
+      <c r="AD3" s="307"/>
+      <c r="AE3" s="307"/>
+      <c r="AF3" s="307"/>
+      <c r="AG3" s="307"/>
+      <c r="AH3" s="307"/>
+      <c r="AI3" s="307"/>
+      <c r="AJ3" s="307"/>
+      <c r="AK3" s="307"/>
+      <c r="AL3" s="307"/>
+      <c r="AM3" s="307"/>
+      <c r="AN3" s="307"/>
+      <c r="AO3" s="307"/>
+      <c r="AP3" s="307"/>
+      <c r="AQ3" s="307"/>
+      <c r="AR3" s="307"/>
+      <c r="AS3" s="307"/>
+      <c r="AT3" s="307"/>
     </row>
     <row r="4" spans="1:56">
-      <c r="A4" s="306" t="s">
+      <c r="A4" s="308" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="306"/>
+      <c r="B4" s="308"/>
       <c r="C4" s="152"/>
       <c r="D4" s="152">
         <v>933225</v>
@@ -3862,10 +3862,10 @@
       <c r="L4" s="154">
         <v>0</v>
       </c>
-      <c r="M4" s="306">
+      <c r="M4" s="308">
         <v>1980</v>
       </c>
-      <c r="N4" s="306"/>
+      <c r="N4" s="308"/>
       <c r="O4" s="154">
         <v>1320</v>
       </c>
@@ -3894,24 +3894,24 @@
         <v>386</v>
       </c>
       <c r="AB4" s="153"/>
-      <c r="AC4" s="307"/>
-      <c r="AD4" s="307"/>
-      <c r="AE4" s="307"/>
-      <c r="AF4" s="307"/>
-      <c r="AG4" s="307"/>
-      <c r="AH4" s="307"/>
-      <c r="AI4" s="307"/>
-      <c r="AJ4" s="307"/>
-      <c r="AK4" s="307"/>
-      <c r="AL4" s="307"/>
-      <c r="AM4" s="307"/>
-      <c r="AN4" s="307"/>
-      <c r="AO4" s="307"/>
-      <c r="AP4" s="307"/>
-      <c r="AQ4" s="307"/>
-      <c r="AR4" s="307"/>
-      <c r="AS4" s="307"/>
-      <c r="AT4" s="307"/>
+      <c r="AC4" s="309"/>
+      <c r="AD4" s="309"/>
+      <c r="AE4" s="309"/>
+      <c r="AF4" s="309"/>
+      <c r="AG4" s="309"/>
+      <c r="AH4" s="309"/>
+      <c r="AI4" s="309"/>
+      <c r="AJ4" s="309"/>
+      <c r="AK4" s="309"/>
+      <c r="AL4" s="309"/>
+      <c r="AM4" s="309"/>
+      <c r="AN4" s="309"/>
+      <c r="AO4" s="309"/>
+      <c r="AP4" s="309"/>
+      <c r="AQ4" s="309"/>
+      <c r="AR4" s="309"/>
+      <c r="AS4" s="309"/>
+      <c r="AT4" s="309"/>
       <c r="AV4" s="73"/>
       <c r="AW4" s="73"/>
       <c r="AX4" s="73"/>
@@ -3923,10 +3923,10 @@
       <c r="BD4" s="73"/>
     </row>
     <row r="5" spans="1:56">
-      <c r="A5" s="306" t="s">
+      <c r="A5" s="308" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="306"/>
+      <c r="B5" s="308"/>
       <c r="C5" s="152"/>
       <c r="D5" s="262"/>
       <c r="E5" s="262"/>
@@ -3953,24 +3953,24 @@
       <c r="Z5" s="262"/>
       <c r="AA5" s="262"/>
       <c r="AB5" s="262"/>
-      <c r="AC5" s="307"/>
-      <c r="AD5" s="307"/>
-      <c r="AE5" s="307"/>
-      <c r="AF5" s="307"/>
-      <c r="AG5" s="307"/>
-      <c r="AH5" s="307"/>
-      <c r="AI5" s="307"/>
-      <c r="AJ5" s="307"/>
-      <c r="AK5" s="307"/>
-      <c r="AL5" s="307"/>
-      <c r="AM5" s="307"/>
-      <c r="AN5" s="307"/>
-      <c r="AO5" s="307"/>
-      <c r="AP5" s="307"/>
-      <c r="AQ5" s="307"/>
-      <c r="AR5" s="307"/>
-      <c r="AS5" s="307"/>
-      <c r="AT5" s="307"/>
+      <c r="AC5" s="309"/>
+      <c r="AD5" s="309"/>
+      <c r="AE5" s="309"/>
+      <c r="AF5" s="309"/>
+      <c r="AG5" s="309"/>
+      <c r="AH5" s="309"/>
+      <c r="AI5" s="309"/>
+      <c r="AJ5" s="309"/>
+      <c r="AK5" s="309"/>
+      <c r="AL5" s="309"/>
+      <c r="AM5" s="309"/>
+      <c r="AN5" s="309"/>
+      <c r="AO5" s="309"/>
+      <c r="AP5" s="309"/>
+      <c r="AQ5" s="309"/>
+      <c r="AR5" s="309"/>
+      <c r="AS5" s="309"/>
+      <c r="AT5" s="309"/>
       <c r="AV5" s="73"/>
       <c r="AW5" s="73"/>
       <c r="AX5" s="73"/>
@@ -6452,11 +6452,11 @@
       <c r="BD28" s="73"/>
     </row>
     <row r="29" spans="1:56" s="234" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A29" s="308" t="s">
+      <c r="A29" s="310" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="309"/>
-      <c r="C29" s="309"/>
+      <c r="B29" s="311"/>
+      <c r="C29" s="311"/>
       <c r="D29" s="227">
         <f t="shared" ref="D29:AT29" si="14">SUM(D7:D28)</f>
         <v>229317</v>
@@ -6641,11 +6641,11 @@
       <c r="BD29" s="233"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1">
-      <c r="A30" s="312" t="s">
+      <c r="A30" s="314" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="313"/>
-      <c r="C30" s="314"/>
+      <c r="B30" s="315"/>
+      <c r="C30" s="316"/>
       <c r="D30" s="236">
         <f t="shared" ref="D30:AB30" si="16">D4+D5-D29</f>
         <v>703908</v>
@@ -6835,40 +6835,40 @@
       <c r="A32" s="73"/>
       <c r="B32" s="73"/>
       <c r="C32" s="58"/>
-      <c r="D32" s="310"/>
-      <c r="E32" s="310"/>
-      <c r="F32" s="310"/>
-      <c r="G32" s="310"/>
-      <c r="H32" s="310"/>
-      <c r="I32" s="310"/>
-      <c r="J32" s="310"/>
-      <c r="K32" s="310"/>
-      <c r="L32" s="310"/>
-      <c r="M32" s="310"/>
+      <c r="D32" s="312"/>
+      <c r="E32" s="312"/>
+      <c r="F32" s="312"/>
+      <c r="G32" s="312"/>
+      <c r="H32" s="312"/>
+      <c r="I32" s="312"/>
+      <c r="J32" s="312"/>
+      <c r="K32" s="312"/>
+      <c r="L32" s="312"/>
+      <c r="M32" s="312"/>
       <c r="O32" s="245"/>
       <c r="P32" s="193"/>
       <c r="Q32" s="73"/>
       <c r="R32" s="73"/>
       <c r="S32" s="73"/>
-      <c r="AR32" s="311" t="s">
+      <c r="AR32" s="313" t="s">
         <v>125</v>
       </c>
-      <c r="AS32" s="311"/>
-      <c r="AT32" s="311"/>
+      <c r="AS32" s="313"/>
+      <c r="AT32" s="313"/>
       <c r="AU32" s="246"/>
     </row>
     <row r="33" spans="1:48" ht="15.75">
       <c r="A33" s="73"/>
       <c r="B33" s="73"/>
       <c r="C33" s="58"/>
-      <c r="D33" s="303"/>
-      <c r="E33" s="303"/>
-      <c r="F33" s="303"/>
-      <c r="G33" s="303"/>
-      <c r="H33" s="303"/>
-      <c r="I33" s="303"/>
-      <c r="J33" s="303"/>
-      <c r="K33" s="303"/>
+      <c r="D33" s="317"/>
+      <c r="E33" s="317"/>
+      <c r="F33" s="317"/>
+      <c r="G33" s="317"/>
+      <c r="H33" s="317"/>
+      <c r="I33" s="317"/>
+      <c r="J33" s="317"/>
+      <c r="K33" s="317"/>
       <c r="L33" s="253"/>
       <c r="M33" s="253"/>
       <c r="P33" s="73"/>
@@ -6888,14 +6888,14 @@
       <c r="A34" s="73"/>
       <c r="B34" s="73"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="305"/>
-      <c r="E34" s="305"/>
-      <c r="F34" s="305"/>
-      <c r="G34" s="305"/>
-      <c r="H34" s="305"/>
-      <c r="I34" s="305"/>
-      <c r="J34" s="305"/>
-      <c r="K34" s="305"/>
+      <c r="D34" s="319"/>
+      <c r="E34" s="319"/>
+      <c r="F34" s="319"/>
+      <c r="G34" s="319"/>
+      <c r="H34" s="319"/>
+      <c r="I34" s="319"/>
+      <c r="J34" s="319"/>
+      <c r="K34" s="319"/>
       <c r="L34" s="252"/>
       <c r="M34" s="254"/>
       <c r="N34" s="193"/>
@@ -6917,14 +6917,14 @@
       <c r="A35" s="73"/>
       <c r="B35" s="73"/>
       <c r="C35" s="58"/>
-      <c r="D35" s="303"/>
-      <c r="E35" s="303"/>
-      <c r="F35" s="303"/>
-      <c r="G35" s="303"/>
-      <c r="H35" s="303"/>
-      <c r="I35" s="303"/>
-      <c r="J35" s="303"/>
-      <c r="K35" s="303"/>
+      <c r="D35" s="317"/>
+      <c r="E35" s="317"/>
+      <c r="F35" s="317"/>
+      <c r="G35" s="317"/>
+      <c r="H35" s="317"/>
+      <c r="I35" s="317"/>
+      <c r="J35" s="317"/>
+      <c r="K35" s="317"/>
       <c r="L35" s="253"/>
       <c r="M35" s="254"/>
       <c r="O35" s="73"/>
@@ -6943,14 +6943,14 @@
       <c r="A36" s="73"/>
       <c r="B36" s="73"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="303"/>
-      <c r="E36" s="303"/>
-      <c r="F36" s="303"/>
-      <c r="G36" s="303"/>
-      <c r="H36" s="303"/>
-      <c r="I36" s="303"/>
-      <c r="J36" s="303"/>
-      <c r="K36" s="303"/>
+      <c r="D36" s="317"/>
+      <c r="E36" s="317"/>
+      <c r="F36" s="317"/>
+      <c r="G36" s="317"/>
+      <c r="H36" s="317"/>
+      <c r="I36" s="317"/>
+      <c r="J36" s="317"/>
+      <c r="K36" s="317"/>
       <c r="L36" s="253"/>
       <c r="M36" s="254"/>
       <c r="O36" s="73"/>
@@ -6969,14 +6969,14 @@
       <c r="A37" s="73"/>
       <c r="B37" s="73"/>
       <c r="C37" s="58"/>
-      <c r="D37" s="303"/>
-      <c r="E37" s="303"/>
-      <c r="F37" s="303"/>
-      <c r="G37" s="303"/>
-      <c r="H37" s="303"/>
-      <c r="I37" s="303"/>
-      <c r="J37" s="303"/>
-      <c r="K37" s="303"/>
+      <c r="D37" s="317"/>
+      <c r="E37" s="317"/>
+      <c r="F37" s="317"/>
+      <c r="G37" s="317"/>
+      <c r="H37" s="317"/>
+      <c r="I37" s="317"/>
+      <c r="J37" s="317"/>
+      <c r="K37" s="317"/>
       <c r="L37" s="255"/>
       <c r="M37" s="254"/>
       <c r="O37" s="245"/>
@@ -6992,14 +6992,14 @@
       <c r="A38" s="249"/>
       <c r="B38" s="249"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="303"/>
-      <c r="E38" s="303"/>
-      <c r="F38" s="303"/>
-      <c r="G38" s="303"/>
-      <c r="H38" s="303"/>
-      <c r="I38" s="303"/>
-      <c r="J38" s="303"/>
-      <c r="K38" s="303"/>
+      <c r="D38" s="317"/>
+      <c r="E38" s="317"/>
+      <c r="F38" s="317"/>
+      <c r="G38" s="317"/>
+      <c r="H38" s="317"/>
+      <c r="I38" s="317"/>
+      <c r="J38" s="317"/>
+      <c r="K38" s="317"/>
       <c r="L38" s="253"/>
       <c r="M38" s="253"/>
       <c r="AR38" s="49">
@@ -7014,14 +7014,14 @@
       <c r="A39" s="73"/>
       <c r="B39" s="73"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="303"/>
-      <c r="E39" s="303"/>
-      <c r="F39" s="303"/>
-      <c r="G39" s="303"/>
-      <c r="H39" s="303"/>
-      <c r="I39" s="303"/>
-      <c r="J39" s="303"/>
-      <c r="K39" s="303"/>
+      <c r="D39" s="317"/>
+      <c r="E39" s="317"/>
+      <c r="F39" s="317"/>
+      <c r="G39" s="317"/>
+      <c r="H39" s="317"/>
+      <c r="I39" s="317"/>
+      <c r="J39" s="317"/>
+      <c r="K39" s="317"/>
       <c r="L39" s="255"/>
       <c r="M39" s="254"/>
       <c r="AR39" s="198">
@@ -7036,14 +7036,14 @@
       <c r="A40" s="73"/>
       <c r="B40" s="73"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="304"/>
-      <c r="E40" s="304"/>
-      <c r="F40" s="304"/>
-      <c r="G40" s="304"/>
-      <c r="H40" s="304"/>
-      <c r="I40" s="304"/>
-      <c r="J40" s="304"/>
-      <c r="K40" s="304"/>
+      <c r="D40" s="318"/>
+      <c r="E40" s="318"/>
+      <c r="F40" s="318"/>
+      <c r="G40" s="318"/>
+      <c r="H40" s="318"/>
+      <c r="I40" s="318"/>
+      <c r="J40" s="318"/>
+      <c r="K40" s="318"/>
       <c r="L40" s="256"/>
       <c r="M40" s="257"/>
       <c r="AO40" s="250"/>
@@ -7809,19 +7809,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:AT1"/>
-    <mergeCell ref="A2:AT2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:AT3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="AC4:AT4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AC5:AT5"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="AR32:AT32"/>
-    <mergeCell ref="A30:C30"/>
     <mergeCell ref="D39:K39"/>
     <mergeCell ref="D40:K40"/>
     <mergeCell ref="D33:K33"/>
@@ -7830,6 +7817,19 @@
     <mergeCell ref="D36:K36"/>
     <mergeCell ref="D37:K37"/>
     <mergeCell ref="D38:K38"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AC5:AT5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="AR32:AT32"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:AT1"/>
+    <mergeCell ref="A2:AT2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:AT3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="AC4:AT4"/>
   </mergeCells>
   <conditionalFormatting sqref="AP7:AP28">
     <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="greaterThan">
@@ -10396,70 +10396,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="348" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
-      <c r="N1" s="340"/>
-      <c r="O1" s="340"/>
-      <c r="P1" s="340"/>
-      <c r="Q1" s="340"/>
-      <c r="R1" s="340"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
+      <c r="F1" s="348"/>
+      <c r="G1" s="348"/>
+      <c r="H1" s="348"/>
+      <c r="I1" s="348"/>
+      <c r="J1" s="348"/>
+      <c r="K1" s="348"/>
+      <c r="L1" s="348"/>
+      <c r="M1" s="348"/>
+      <c r="N1" s="348"/>
+      <c r="O1" s="348"/>
+      <c r="P1" s="348"/>
+      <c r="Q1" s="348"/>
+      <c r="R1" s="348"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="341" t="s">
+      <c r="A2" s="349" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="341"/>
-      <c r="C2" s="341"/>
-      <c r="D2" s="341"/>
-      <c r="E2" s="341"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="341"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341"/>
-      <c r="K2" s="341"/>
-      <c r="L2" s="341"/>
-      <c r="M2" s="341"/>
-      <c r="N2" s="341"/>
-      <c r="O2" s="341"/>
-      <c r="P2" s="341"/>
-      <c r="Q2" s="341"/>
-      <c r="R2" s="341"/>
+      <c r="B2" s="349"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="349"/>
+      <c r="H2" s="349"/>
+      <c r="I2" s="349"/>
+      <c r="J2" s="349"/>
+      <c r="K2" s="349"/>
+      <c r="L2" s="349"/>
+      <c r="M2" s="349"/>
+      <c r="N2" s="349"/>
+      <c r="O2" s="349"/>
+      <c r="P2" s="349"/>
+      <c r="Q2" s="349"/>
+      <c r="R2" s="349"/>
     </row>
     <row r="3" spans="1:25" s="109" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="358" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
-      <c r="D3" s="351"/>
-      <c r="E3" s="351"/>
-      <c r="F3" s="351"/>
-      <c r="G3" s="351"/>
-      <c r="H3" s="351"/>
-      <c r="I3" s="351"/>
-      <c r="J3" s="351"/>
-      <c r="K3" s="351"/>
-      <c r="L3" s="351"/>
-      <c r="M3" s="351"/>
-      <c r="N3" s="351"/>
-      <c r="O3" s="351"/>
-      <c r="P3" s="351"/>
-      <c r="Q3" s="351"/>
-      <c r="R3" s="352"/>
+      <c r="B3" s="359"/>
+      <c r="C3" s="359"/>
+      <c r="D3" s="359"/>
+      <c r="E3" s="359"/>
+      <c r="F3" s="359"/>
+      <c r="G3" s="359"/>
+      <c r="H3" s="359"/>
+      <c r="I3" s="359"/>
+      <c r="J3" s="359"/>
+      <c r="K3" s="359"/>
+      <c r="L3" s="359"/>
+      <c r="M3" s="359"/>
+      <c r="N3" s="359"/>
+      <c r="O3" s="359"/>
+      <c r="P3" s="359"/>
+      <c r="Q3" s="359"/>
+      <c r="R3" s="360"/>
       <c r="T3" s="110"/>
       <c r="U3" s="111"/>
       <c r="V3" s="111"/>
@@ -10468,55 +10468,55 @@
       <c r="Y3" s="112"/>
     </row>
     <row r="4" spans="1:25" s="112" customFormat="1">
-      <c r="A4" s="342" t="s">
+      <c r="A4" s="350" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="344" t="s">
+      <c r="B4" s="352" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="344" t="s">
+      <c r="C4" s="352" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="338" t="s">
+      <c r="D4" s="346" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="338" t="s">
+      <c r="E4" s="346" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="338" t="s">
+      <c r="F4" s="346" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="338" t="s">
+      <c r="G4" s="346" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="338" t="s">
+      <c r="H4" s="346" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="338" t="s">
+      <c r="I4" s="346" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="338" t="s">
+      <c r="J4" s="346" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="353" t="s">
+      <c r="K4" s="361" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="355" t="s">
+      <c r="L4" s="338" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="357" t="s">
+      <c r="M4" s="340" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="359" t="s">
+      <c r="N4" s="342" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="361" t="s">
+      <c r="O4" s="344" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="346" t="s">
+      <c r="P4" s="354" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="348" t="s">
+      <c r="Q4" s="356" t="s">
         <v>50</v>
       </c>
       <c r="R4" s="113" t="s">
@@ -10529,23 +10529,23 @@
       <c r="X4" s="111"/>
     </row>
     <row r="5" spans="1:25" s="112" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="343"/>
-      <c r="B5" s="345"/>
-      <c r="C5" s="345"/>
-      <c r="D5" s="339"/>
-      <c r="E5" s="339"/>
-      <c r="F5" s="339"/>
-      <c r="G5" s="339"/>
-      <c r="H5" s="339"/>
-      <c r="I5" s="339"/>
-      <c r="J5" s="339"/>
-      <c r="K5" s="354"/>
-      <c r="L5" s="356"/>
-      <c r="M5" s="358"/>
-      <c r="N5" s="360"/>
-      <c r="O5" s="362"/>
-      <c r="P5" s="347"/>
-      <c r="Q5" s="349"/>
+      <c r="A5" s="351"/>
+      <c r="B5" s="353"/>
+      <c r="C5" s="353"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="347"/>
+      <c r="H5" s="347"/>
+      <c r="I5" s="347"/>
+      <c r="J5" s="347"/>
+      <c r="K5" s="362"/>
+      <c r="L5" s="339"/>
+      <c r="M5" s="341"/>
+      <c r="N5" s="343"/>
+      <c r="O5" s="345"/>
+      <c r="P5" s="355"/>
+      <c r="Q5" s="357"/>
       <c r="R5" s="115" t="s">
         <v>52</v>
       </c>
@@ -13489,14 +13489,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -13509,6 +13501,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13605,25 +13605,25 @@
       <c r="Q3" s="367"/>
     </row>
     <row r="4" spans="1:17" s="248" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="317" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="303"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="303"/>
-      <c r="J4" s="303"/>
-      <c r="K4" s="303"/>
-      <c r="L4" s="303"/>
-      <c r="M4" s="303"/>
-      <c r="N4" s="303"/>
-      <c r="O4" s="303"/>
-      <c r="P4" s="303"/>
-      <c r="Q4" s="303"/>
+      <c r="B4" s="317"/>
+      <c r="C4" s="317"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="317"/>
+      <c r="J4" s="317"/>
+      <c r="K4" s="317"/>
+      <c r="L4" s="317"/>
+      <c r="M4" s="317"/>
+      <c r="N4" s="317"/>
+      <c r="O4" s="317"/>
+      <c r="P4" s="317"/>
+      <c r="Q4" s="317"/>
     </row>
     <row r="5" spans="1:17" s="248" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="368" t="s">
